--- a/PYTHON/GotoweVistaBulk/MinimalistInterior_Pinterest.xlsx
+++ b/PYTHON/GotoweVistaBulk/MinimalistInterior_Pinterest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="212">
   <si>
     <t>message</t>
   </si>
@@ -28,475 +28,628 @@
     <t>time</t>
   </si>
   <si>
-    <t>Minimalistic Living Room#1</t>
+    <t>Minimalistic Office#1</t>
   </si>
   <si>
     <t>image</t>
   </si>
   <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/1.jpg</t>
-  </si>
-  <si>
-    <t>2023-05-29 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#2</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/2.jpg</t>
-  </si>
-  <si>
-    <t>2023-05-29 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#3</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/3.jpg</t>
-  </si>
-  <si>
-    <t>2023-05-29 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#4</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/4.jpg</t>
-  </si>
-  <si>
-    <t>2023-05-30 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#5</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/5.jpg</t>
-  </si>
-  <si>
-    <t>2023-05-30 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#6</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/6.jpg</t>
-  </si>
-  <si>
-    <t>2023-05-30 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#7</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/7.jpg</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#8</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/8.jpg</t>
-  </si>
-  <si>
-    <t>2023-05-31 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#9</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/9.jpg</t>
-  </si>
-  <si>
-    <t>2023-05-31 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#10</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/10.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-01 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#11</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/11.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-01 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#12</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/12.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-01 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#13</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/13.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-02 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#14</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/14.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-02 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#15</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/15.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-02 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#16</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/16.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-03 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#17</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/17.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-03 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#18</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/18.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-03 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#19</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/19.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-04 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#20</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/20.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-04 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#21</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/21.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-04 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#22</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/22.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-05 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#23</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/23.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-05 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#24</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/24.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-05 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#25</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/25.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-06 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#26</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/26.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-06 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#27</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/27.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-06 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#28</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/28.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-07 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#29</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/29.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-07 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#30</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/30.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-07 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#31</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/31.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-08 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#32</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/32.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-08 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#33</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/33.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-08 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#34</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/34.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-09 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#35</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/35.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-09 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#36</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/36.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-09 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#37</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/37.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-10 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#38</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/38.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-10 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#39</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/39.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-10 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#40</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/40.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-11 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#41</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/41.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-11 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#42</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/42.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-11 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#43</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/43.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-12 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#44</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/44.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-12 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#45</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/45.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-12 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#46</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/46.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-13 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#47</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/47.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-13 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#48</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/48.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-13 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#49</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/49.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-14 14:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#50</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/50.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-14 17:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#51</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/51.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-14 20:00</t>
-  </si>
-  <si>
-    <t>Minimalistic Living Room#52</t>
-  </si>
-  <si>
-    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/livingroom/52.jpg</t>
-  </si>
-  <si>
-    <t>2023-06-15 14:00</t>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/1.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-14 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#2</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/2.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-14 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#3</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/3.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-14 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#4</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/4.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-15 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#5</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/5.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-15 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#6</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/6.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-15 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#7</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/7.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-16 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#8</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/8.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-16 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#9</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/9.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-16 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#10</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/10.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-17 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#11</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/11.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-17 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#12</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/12.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-17 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#13</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/13.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-18 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#14</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/14.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-18 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#15</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/15.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-18 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#16</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/16.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-19 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#17</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/17.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-19 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#18</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/18.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-19 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#19</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/19.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-20 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#20</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/20.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-20 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#21</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/21.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-20 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#22</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/22.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-21 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#23</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/23.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-21 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#24</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/24.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-21 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#25</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/25.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-22 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#26</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/26.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-22 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#27</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/27.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-22 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#28</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/28.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-23 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#29</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/29.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-23 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#30</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/30.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-23 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#31</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/31.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-24 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#32</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/32.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-24 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#33</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/33.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-24 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#34</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/34.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-25 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#35</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/35.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-25 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#36</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/36.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-25 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#37</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/37.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-26 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#38</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/38.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-26 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#39</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/39.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-26 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#40</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/40.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-27 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#41</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/41.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-27 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#42</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/42.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-27 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#43</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/43.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-28 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#44</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/44.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-28 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#45</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/45.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-28 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#46</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/46.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-29 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#47</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/47.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-29 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#48</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/48.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#49</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/49.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-30 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#50</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/50.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-30 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#51</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/51.jpg</t>
+  </si>
+  <si>
+    <t>2023-06-30 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#52</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/52.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#53</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/53.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-01 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#54</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/54.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-01 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#55</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/55.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-02 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#56</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/56.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-02 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#57</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/57.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-02 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#58</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/58.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-03 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#59</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/59.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-03 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#60</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/60.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-03 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#61</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/61.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-04 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#62</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/62.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-04 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#63</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/63.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-04 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#64</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/64.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-05 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#65</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/65.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-05 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#66</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/66.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-05 21:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#67</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/67.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-06 15:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#68</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/68.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-06 18:00</t>
+  </si>
+  <si>
+    <t>Minimalistic Office#69</t>
+  </si>
+  <si>
+    <t>http://hosting2275851.online.pro/ARCHIWUM/MinimalistInterior/pinterest/office/69.jpg</t>
+  </si>
+  <si>
+    <t>2023-07-06 21:00</t>
   </si>
 </sst>
 </file>
@@ -841,7 +994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1587,6 +1740,244 @@
       </c>
       <c r="D53" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1643,6 +2034,23 @@
     <hyperlink ref="C51" r:id="rId50"/>
     <hyperlink ref="C52" r:id="rId51"/>
     <hyperlink ref="C53" r:id="rId52"/>
+    <hyperlink ref="C54" r:id="rId53"/>
+    <hyperlink ref="C55" r:id="rId54"/>
+    <hyperlink ref="C56" r:id="rId55"/>
+    <hyperlink ref="C57" r:id="rId56"/>
+    <hyperlink ref="C58" r:id="rId57"/>
+    <hyperlink ref="C59" r:id="rId58"/>
+    <hyperlink ref="C60" r:id="rId59"/>
+    <hyperlink ref="C61" r:id="rId60"/>
+    <hyperlink ref="C62" r:id="rId61"/>
+    <hyperlink ref="C63" r:id="rId62"/>
+    <hyperlink ref="C64" r:id="rId63"/>
+    <hyperlink ref="C65" r:id="rId64"/>
+    <hyperlink ref="C66" r:id="rId65"/>
+    <hyperlink ref="C67" r:id="rId66"/>
+    <hyperlink ref="C68" r:id="rId67"/>
+    <hyperlink ref="C69" r:id="rId68"/>
+    <hyperlink ref="C70" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
